--- a/Transport_task/example.xlsx
+++ b/Transport_task/example.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\OneDrive\Desktop\bmstu\VKR\program\diploma\Transport_task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\OneDrive\Desktop\bmstu\VKR\new_program\Tr_task\Transport_task\Transport_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4076C81-27B8-4886-AE0D-C88223F33852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959D822-C7B4-496D-B294-3562DCC1AA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10808" yWindow="1530" windowWidth="12510" windowHeight="12870"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="5" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="1">
   <si>
     <t>Created by LibXL trial version 4.2.0. Please buy the LibXL full version for removing this message.</t>
   </si>
@@ -73,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -360,271 +365,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV5"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" ht="20" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
-      <c r="DT1" s="1"/>
-      <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
-      <c r="DW1" s="1"/>
-      <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
-      <c r="DZ1" s="1"/>
-      <c r="EA1" s="1"/>
-      <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
-      <c r="EF1" s="1"/>
-      <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
-      <c r="EI1" s="1"/>
-      <c r="EJ1" s="1"/>
-      <c r="EK1" s="1"/>
-      <c r="EL1" s="1"/>
-      <c r="EM1" s="1"/>
-      <c r="EN1" s="1"/>
-      <c r="EO1" s="1"/>
-      <c r="EP1" s="1"/>
-      <c r="EQ1" s="1"/>
-      <c r="ER1" s="1"/>
-      <c r="ES1" s="1"/>
-      <c r="ET1" s="1"/>
-      <c r="EU1" s="1"/>
-      <c r="EV1" s="1"/>
-      <c r="EW1" s="1"/>
-      <c r="EX1" s="1"/>
-      <c r="EY1" s="1"/>
-      <c r="EZ1" s="1"/>
-      <c r="FA1" s="1"/>
-      <c r="FB1" s="1"/>
-      <c r="FC1" s="1"/>
-      <c r="FD1" s="1"/>
-      <c r="FE1" s="1"/>
-      <c r="FF1" s="1"/>
-      <c r="FG1" s="1"/>
-      <c r="FH1" s="1"/>
-      <c r="FI1" s="1"/>
-      <c r="FJ1" s="1"/>
-      <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
-      <c r="FM1" s="1"/>
-      <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
-      <c r="FP1" s="1"/>
-      <c r="FQ1" s="1"/>
-      <c r="FR1" s="1"/>
-      <c r="FS1" s="1"/>
-      <c r="FT1" s="1"/>
-      <c r="FU1" s="1"/>
-      <c r="FV1" s="1"/>
-      <c r="FW1" s="1"/>
-      <c r="FX1" s="1"/>
-      <c r="FY1" s="1"/>
-      <c r="FZ1" s="1"/>
-      <c r="GA1" s="1"/>
-      <c r="GB1" s="1"/>
-      <c r="GC1" s="1"/>
-      <c r="GD1" s="1"/>
-      <c r="GE1" s="1"/>
-      <c r="GF1" s="1"/>
-      <c r="GG1" s="1"/>
-      <c r="GH1" s="1"/>
-      <c r="GI1" s="1"/>
-      <c r="GJ1" s="1"/>
-      <c r="GK1" s="1"/>
-      <c r="GL1" s="1"/>
-      <c r="GM1" s="1"/>
-      <c r="GN1" s="1"/>
-      <c r="GO1" s="1"/>
-      <c r="GP1" s="1"/>
-      <c r="GQ1" s="1"/>
-      <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
-      <c r="GT1" s="1"/>
-      <c r="GU1" s="1"/>
-      <c r="GV1" s="1"/>
-      <c r="GW1" s="1"/>
-      <c r="GX1" s="1"/>
-      <c r="GY1" s="1"/>
-      <c r="GZ1" s="1"/>
-      <c r="HA1" s="1"/>
-      <c r="HB1" s="1"/>
-      <c r="HC1" s="1"/>
-      <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
-      <c r="HF1" s="1"/>
-      <c r="HG1" s="1"/>
-      <c r="HH1" s="1"/>
-      <c r="HI1" s="1"/>
-      <c r="HJ1" s="1"/>
-      <c r="HK1" s="1"/>
-      <c r="HL1" s="1"/>
-      <c r="HM1" s="1"/>
-      <c r="HN1" s="1"/>
-      <c r="HO1" s="1"/>
-      <c r="HP1" s="1"/>
-      <c r="HQ1" s="1"/>
-      <c r="HR1" s="1"/>
-      <c r="HS1" s="1"/>
-      <c r="HT1" s="1"/>
-      <c r="HU1" s="1"/>
-      <c r="HV1" s="1"/>
-      <c r="HW1" s="1"/>
-      <c r="HX1" s="1"/>
-      <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1"/>
-      <c r="IB1" s="1"/>
-      <c r="IC1" s="1"/>
-      <c r="ID1" s="1"/>
-      <c r="IE1" s="1"/>
-      <c r="IF1" s="1"/>
-      <c r="IG1" s="1"/>
-      <c r="IH1" s="1"/>
-      <c r="II1" s="1"/>
-      <c r="IJ1" s="1"/>
-      <c r="IK1" s="1"/>
-      <c r="IL1" s="1"/>
-      <c r="IM1" s="1"/>
-      <c r="IN1" s="1"/>
-      <c r="IO1" s="1"/>
-      <c r="IP1" s="1"/>
-      <c r="IQ1" s="1"/>
-      <c r="IR1" s="1"/>
-      <c r="IS1" s="1"/>
-      <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
-      <c r="IV1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
+      <c r="FE1" s="2"/>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2"/>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
+      <c r="FW1" s="2"/>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
+      <c r="GC1" s="2"/>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="2"/>
+      <c r="GJ1" s="2"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
+      <c r="GM1" s="2"/>
+      <c r="GN1" s="2"/>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+      <c r="GQ1" s="2"/>
+      <c r="GR1" s="2"/>
+      <c r="GS1" s="2"/>
+      <c r="GT1" s="2"/>
+      <c r="GU1" s="2"/>
+      <c r="GV1" s="2"/>
+      <c r="GW1" s="2"/>
+      <c r="GX1" s="2"/>
+      <c r="GY1" s="2"/>
+      <c r="GZ1" s="2"/>
+      <c r="HA1" s="2"/>
+      <c r="HB1" s="2"/>
+      <c r="HC1" s="2"/>
+      <c r="HD1" s="2"/>
+      <c r="HE1" s="2"/>
+      <c r="HF1" s="2"/>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2"/>
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2"/>
+      <c r="HR1" s="2"/>
+      <c r="HS1" s="2"/>
+      <c r="HT1" s="2"/>
+      <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
+      <c r="HX1" s="2"/>
+      <c r="HY1" s="2"/>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
+      <c r="IB1" s="2"/>
+      <c r="IC1" s="2"/>
+      <c r="ID1" s="2"/>
+      <c r="IE1" s="2"/>
+      <c r="IF1" s="2"/>
+      <c r="IG1" s="2"/>
+      <c r="IH1" s="2"/>
+      <c r="II1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IK1" s="2"/>
+      <c r="IL1" s="2"/>
+      <c r="IM1" s="2"/>
+      <c r="IN1" s="2"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
+      <c r="IU1" s="2"/>
+      <c r="IV1" s="2"/>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.45">
       <c r="B2">
@@ -689,6 +694,2452 @@
       </c>
       <c r="E5">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:IV1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF851F3-C2F7-43DD-9808-B94C6B442F25}">
+  <dimension ref="A1:IV7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="A1:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" ht="20" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
+      <c r="FE1" s="2"/>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2"/>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
+      <c r="FW1" s="2"/>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
+      <c r="GC1" s="2"/>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="2"/>
+      <c r="GJ1" s="2"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
+      <c r="GM1" s="2"/>
+      <c r="GN1" s="2"/>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+      <c r="GQ1" s="2"/>
+      <c r="GR1" s="2"/>
+      <c r="GS1" s="2"/>
+      <c r="GT1" s="2"/>
+      <c r="GU1" s="2"/>
+      <c r="GV1" s="2"/>
+      <c r="GW1" s="2"/>
+      <c r="GX1" s="2"/>
+      <c r="GY1" s="2"/>
+      <c r="GZ1" s="2"/>
+      <c r="HA1" s="2"/>
+      <c r="HB1" s="2"/>
+      <c r="HC1" s="2"/>
+      <c r="HD1" s="2"/>
+      <c r="HE1" s="2"/>
+      <c r="HF1" s="2"/>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2"/>
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2"/>
+      <c r="HR1" s="2"/>
+      <c r="HS1" s="2"/>
+      <c r="HT1" s="2"/>
+      <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
+      <c r="HX1" s="2"/>
+      <c r="HY1" s="2"/>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
+      <c r="IB1" s="2"/>
+      <c r="IC1" s="2"/>
+      <c r="ID1" s="2"/>
+      <c r="IE1" s="2"/>
+      <c r="IF1" s="2"/>
+      <c r="IG1" s="2"/>
+      <c r="IH1" s="2"/>
+      <c r="II1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IK1" s="2"/>
+      <c r="IL1" s="2"/>
+      <c r="IM1" s="2"/>
+      <c r="IN1" s="2"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
+      <c r="IU1" s="2"/>
+      <c r="IV1" s="2"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>140</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>67</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>190</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:IV1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BE3A23-EC6F-4276-8948-9344AC80C5EC}">
+  <dimension ref="A1:IV32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" ht="20" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
+      <c r="FE1" s="2"/>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2"/>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
+      <c r="FW1" s="2"/>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
+      <c r="GC1" s="2"/>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="2"/>
+      <c r="GJ1" s="2"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
+      <c r="GM1" s="2"/>
+      <c r="GN1" s="2"/>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+      <c r="GQ1" s="2"/>
+      <c r="GR1" s="2"/>
+      <c r="GS1" s="2"/>
+      <c r="GT1" s="2"/>
+      <c r="GU1" s="2"/>
+      <c r="GV1" s="2"/>
+      <c r="GW1" s="2"/>
+      <c r="GX1" s="2"/>
+      <c r="GY1" s="2"/>
+      <c r="GZ1" s="2"/>
+      <c r="HA1" s="2"/>
+      <c r="HB1" s="2"/>
+      <c r="HC1" s="2"/>
+      <c r="HD1" s="2"/>
+      <c r="HE1" s="2"/>
+      <c r="HF1" s="2"/>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2"/>
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2"/>
+      <c r="HR1" s="2"/>
+      <c r="HS1" s="2"/>
+      <c r="HT1" s="2"/>
+      <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
+      <c r="HX1" s="2"/>
+      <c r="HY1" s="2"/>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
+      <c r="IB1" s="2"/>
+      <c r="IC1" s="2"/>
+      <c r="ID1" s="2"/>
+      <c r="IE1" s="2"/>
+      <c r="IF1" s="2"/>
+      <c r="IG1" s="2"/>
+      <c r="IH1" s="2"/>
+      <c r="II1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IK1" s="2"/>
+      <c r="IL1" s="2"/>
+      <c r="IM1" s="2"/>
+      <c r="IN1" s="2"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
+      <c r="IU1" s="2"/>
+      <c r="IV1" s="2"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.45">
+      <c r="B2" s="1">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1">
+        <v>120</v>
+      </c>
+      <c r="H2" s="1">
+        <v>130</v>
+      </c>
+      <c r="I2" s="1">
+        <v>178</v>
+      </c>
+      <c r="J2" s="1">
+        <v>150</v>
+      </c>
+      <c r="K2" s="1">
+        <v>130</v>
+      </c>
+      <c r="L2" s="1">
+        <v>150</v>
+      </c>
+      <c r="M2" s="1">
+        <v>140</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1">
+        <v>67</v>
+      </c>
+      <c r="P2" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>130</v>
+      </c>
+      <c r="R2" s="1">
+        <v>178</v>
+      </c>
+      <c r="S2" s="1">
+        <v>150</v>
+      </c>
+      <c r="T2" s="1">
+        <v>130</v>
+      </c>
+      <c r="U2" s="1">
+        <v>150</v>
+      </c>
+      <c r="V2" s="1">
+        <v>140</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45</v>
+      </c>
+      <c r="X2" s="1">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>120</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>178</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>140</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>120</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>140</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>270</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>140</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>270</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>130</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>90</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:IV1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D14104-FF9C-4DD5-AEB8-54126F1DFE80}">
+  <dimension ref="A1:IV12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" ht="20" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
+      <c r="FE1" s="2"/>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2"/>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
+      <c r="FW1" s="2"/>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
+      <c r="GC1" s="2"/>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="2"/>
+      <c r="GJ1" s="2"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
+      <c r="GM1" s="2"/>
+      <c r="GN1" s="2"/>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+      <c r="GQ1" s="2"/>
+      <c r="GR1" s="2"/>
+      <c r="GS1" s="2"/>
+      <c r="GT1" s="2"/>
+      <c r="GU1" s="2"/>
+      <c r="GV1" s="2"/>
+      <c r="GW1" s="2"/>
+      <c r="GX1" s="2"/>
+      <c r="GY1" s="2"/>
+      <c r="GZ1" s="2"/>
+      <c r="HA1" s="2"/>
+      <c r="HB1" s="2"/>
+      <c r="HC1" s="2"/>
+      <c r="HD1" s="2"/>
+      <c r="HE1" s="2"/>
+      <c r="HF1" s="2"/>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2"/>
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2"/>
+      <c r="HR1" s="2"/>
+      <c r="HS1" s="2"/>
+      <c r="HT1" s="2"/>
+      <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
+      <c r="HX1" s="2"/>
+      <c r="HY1" s="2"/>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
+      <c r="IB1" s="2"/>
+      <c r="IC1" s="2"/>
+      <c r="ID1" s="2"/>
+      <c r="IE1" s="2"/>
+      <c r="IF1" s="2"/>
+      <c r="IG1" s="2"/>
+      <c r="IH1" s="2"/>
+      <c r="II1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IK1" s="2"/>
+      <c r="IL1" s="2"/>
+      <c r="IM1" s="2"/>
+      <c r="IN1" s="2"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
+      <c r="IU1" s="2"/>
+      <c r="IV1" s="2"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>140</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>67</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>70</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="K2">
+        <v>150</v>
+      </c>
+      <c r="L2">
+        <v>160</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>190</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>80</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>100</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>110</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:IV1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04A415-6434-4A4B-96BA-9AC09E93D2C5}">
+  <dimension ref="A1:IV92"/>
+  <sheetViews>
+    <sheetView tabSelected="true" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" ht="20" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
+      <c r="FE1" s="2"/>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2"/>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
+      <c r="FW1" s="2"/>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
+      <c r="GC1" s="2"/>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="2"/>
+      <c r="GJ1" s="2"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
+      <c r="GM1" s="2"/>
+      <c r="GN1" s="2"/>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+      <c r="GQ1" s="2"/>
+      <c r="GR1" s="2"/>
+      <c r="GS1" s="2"/>
+      <c r="GT1" s="2"/>
+      <c r="GU1" s="2"/>
+      <c r="GV1" s="2"/>
+      <c r="GW1" s="2"/>
+      <c r="GX1" s="2"/>
+      <c r="GY1" s="2"/>
+      <c r="GZ1" s="2"/>
+      <c r="HA1" s="2"/>
+      <c r="HB1" s="2"/>
+      <c r="HC1" s="2"/>
+      <c r="HD1" s="2"/>
+      <c r="HE1" s="2"/>
+      <c r="HF1" s="2"/>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2"/>
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2"/>
+      <c r="HR1" s="2"/>
+      <c r="HS1" s="2"/>
+      <c r="HT1" s="2"/>
+      <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
+      <c r="HX1" s="2"/>
+      <c r="HY1" s="2"/>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
+      <c r="IB1" s="2"/>
+      <c r="IC1" s="2"/>
+      <c r="ID1" s="2"/>
+      <c r="IE1" s="2"/>
+      <c r="IF1" s="2"/>
+      <c r="IG1" s="2"/>
+      <c r="IH1" s="2"/>
+      <c r="II1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IK1" s="2"/>
+      <c r="IL1" s="2"/>
+      <c r="IM1" s="2"/>
+      <c r="IN1" s="2"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
+      <c r="IU1" s="2"/>
+      <c r="IV1" s="2"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.45">
+      <c r="B2" s="1">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1">
+        <v>120</v>
+      </c>
+      <c r="H2" s="1">
+        <v>130</v>
+      </c>
+      <c r="I2" s="1">
+        <v>178</v>
+      </c>
+      <c r="J2" s="1">
+        <v>150</v>
+      </c>
+      <c r="K2" s="1">
+        <v>130</v>
+      </c>
+      <c r="L2" s="1">
+        <v>150</v>
+      </c>
+      <c r="M2" s="1">
+        <v>140</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1">
+        <v>67</v>
+      </c>
+      <c r="P2" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>130</v>
+      </c>
+      <c r="R2" s="1">
+        <v>178</v>
+      </c>
+      <c r="S2" s="1">
+        <v>150</v>
+      </c>
+      <c r="T2" s="1">
+        <v>130</v>
+      </c>
+      <c r="U2" s="1">
+        <v>150</v>
+      </c>
+      <c r="V2" s="1">
+        <v>140</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45</v>
+      </c>
+      <c r="X2" s="1">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>120</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>178</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>140</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>120</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>178</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>140</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>120</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>178</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>140</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>120</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>178</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>150</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>150</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>140</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>45</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>67</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>120</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>178</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>150</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>150</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>140</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>45</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>67</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>120</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>178</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>150</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>140</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>45</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>67</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>120</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>178</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>140</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>45</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>67</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>120</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>178</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>140</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>45</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>67</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>120</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>178</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>140</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>45</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>67</v>
+      </c>
+      <c r="CZ2" s="1">
+        <v>120</v>
+      </c>
+      <c r="DA2" s="1">
+        <v>130</v>
+      </c>
+      <c r="DB2" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>140</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>270</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>140</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>270</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>130</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>90</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>72</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="34" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="35" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="36" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="37" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="38" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="39" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="40" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="41" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="42" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="43" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="44" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="45" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="46" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="47" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="48" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="49" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="50" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="51" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="52" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="53" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>140</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="54" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="55" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>270</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="56" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>140</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="57" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="58" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>270</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="59" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>130</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="60" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>90</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="61" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="62" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>72</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="63" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="64" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="65" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="66" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="67" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="68" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="69" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="70" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="71" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="72" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="73" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="74" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="75" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="76" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="77" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="78" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>200</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="79" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>180</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="80" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>190</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="81" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>64</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="82" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>48</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="83" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>140</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="84" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="85" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>270</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="86" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>140</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="87" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="88" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>270</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="89" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>130</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="90" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>90</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="91" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>150</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="92" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Transport_task/example.xlsx
+++ b/Transport_task/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\OneDrive\Desktop\bmstu\VKR\new_program\Tr_task\Transport_task\Transport_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959D822-C7B4-496D-B294-3562DCC1AA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D69071B-A768-4E19-855D-B65627559A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="4"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Лист3" sheetId="4" r:id="rId3"/>
     <sheet name="Лист4" sheetId="5" r:id="rId4"/>
     <sheet name="Лист5" sheetId="6" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="7" r:id="rId6"/>
+    <sheet name="Лист7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13" uniqueCount="1">
   <si>
     <t>Created by LibXL trial version 4.2.0. Please buy the LibXL full version for removing this message.</t>
   </si>
@@ -366,7 +368,7 @@
   <dimension ref="A1:IV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1122,7 +1124,7 @@
   <dimension ref="A1:IV32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1656,7 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D14104-FF9C-4DD5-AEB8-54126F1DFE80}">
   <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -2109,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04A415-6434-4A4B-96BA-9AC09E93D2C5}">
   <dimension ref="A1:IV92"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="CZ14" sqref="CZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2376,770 +2378,1509 @@
       <c r="IV1" s="2"/>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.45">
-      <c r="B2" s="1">
-        <v>130</v>
-      </c>
-      <c r="C2" s="1">
-        <v>150</v>
-      </c>
-      <c r="D2" s="1">
-        <v>140</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1">
-        <v>67</v>
-      </c>
-      <c r="G2" s="1">
-        <v>120</v>
-      </c>
-      <c r="H2" s="1">
-        <v>130</v>
-      </c>
-      <c r="I2" s="1">
-        <v>178</v>
-      </c>
-      <c r="J2" s="1">
-        <v>150</v>
-      </c>
-      <c r="K2" s="1">
-        <v>130</v>
-      </c>
-      <c r="L2" s="1">
-        <v>150</v>
-      </c>
-      <c r="M2" s="1">
-        <v>140</v>
-      </c>
-      <c r="N2" s="1">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1">
-        <v>67</v>
-      </c>
-      <c r="P2" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>130</v>
-      </c>
-      <c r="R2" s="1">
-        <v>178</v>
-      </c>
-      <c r="S2" s="1">
-        <v>150</v>
-      </c>
-      <c r="T2" s="1">
-        <v>130</v>
-      </c>
-      <c r="U2" s="1">
-        <v>150</v>
-      </c>
-      <c r="V2" s="1">
-        <v>140</v>
-      </c>
-      <c r="W2" s="1">
-        <v>45</v>
-      </c>
-      <c r="X2" s="1">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>120</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>178</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>140</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>45</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>67</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>120</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>178</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>140</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>45</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>67</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>120</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>178</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>140</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>45</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>67</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>120</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>178</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>140</v>
-      </c>
-      <c r="BF2" s="1">
-        <v>45</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>67</v>
-      </c>
-      <c r="BH2" s="1">
-        <v>120</v>
-      </c>
-      <c r="BI2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>178</v>
-      </c>
-      <c r="BK2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BL2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BN2" s="1">
-        <v>140</v>
-      </c>
-      <c r="BO2" s="1">
-        <v>45</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>67</v>
-      </c>
-      <c r="BQ2" s="1">
-        <v>120</v>
-      </c>
-      <c r="BR2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BS2" s="1">
-        <v>178</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BU2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BV2" s="1">
-        <v>140</v>
-      </c>
-      <c r="BW2" s="1">
-        <v>45</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>67</v>
-      </c>
-      <c r="BY2" s="1">
-        <v>120</v>
-      </c>
-      <c r="BZ2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CA2" s="1">
-        <v>178</v>
-      </c>
-      <c r="CB2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CC2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CD2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CE2" s="1">
-        <v>140</v>
-      </c>
-      <c r="CF2" s="1">
-        <v>45</v>
-      </c>
-      <c r="CG2" s="1">
-        <v>67</v>
-      </c>
-      <c r="CH2" s="1">
-        <v>120</v>
-      </c>
-      <c r="CI2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CJ2" s="1">
-        <v>178</v>
-      </c>
-      <c r="CK2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CL2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CM2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CN2" s="1">
-        <v>140</v>
-      </c>
-      <c r="CO2" s="1">
-        <v>45</v>
-      </c>
-      <c r="CP2" s="1">
-        <v>67</v>
-      </c>
-      <c r="CQ2" s="1">
-        <v>120</v>
-      </c>
-      <c r="CR2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CS2" s="1">
-        <v>178</v>
-      </c>
-      <c r="CT2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CU2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CV2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CW2" s="1">
-        <v>140</v>
-      </c>
-      <c r="CX2" s="1">
-        <v>45</v>
-      </c>
-      <c r="CY2" s="1">
-        <v>67</v>
-      </c>
-      <c r="CZ2" s="1">
-        <v>120</v>
-      </c>
-      <c r="DA2" s="1">
-        <v>130</v>
-      </c>
-      <c r="DB2" s="1">
-        <v>178</v>
+      <c r="B2">
+        <v>142</v>
+      </c>
+      <c r="C2">
+        <v>162</v>
+      </c>
+      <c r="D2">
+        <v>152</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>79</v>
+      </c>
+      <c r="G2">
+        <v>132</v>
+      </c>
+      <c r="H2">
+        <v>142</v>
+      </c>
+      <c r="I2">
+        <v>190</v>
+      </c>
+      <c r="J2">
+        <v>168</v>
+      </c>
+      <c r="K2">
+        <v>148</v>
+      </c>
+      <c r="L2">
+        <v>168</v>
+      </c>
+      <c r="M2">
+        <v>158</v>
+      </c>
+      <c r="N2">
+        <v>63</v>
+      </c>
+      <c r="O2">
+        <v>85</v>
+      </c>
+      <c r="P2">
+        <v>138</v>
+      </c>
+      <c r="Q2">
+        <v>148</v>
+      </c>
+      <c r="R2">
+        <v>196</v>
+      </c>
+      <c r="S2">
+        <v>168</v>
+      </c>
+      <c r="T2">
+        <v>148</v>
+      </c>
+      <c r="U2">
+        <v>168</v>
+      </c>
+      <c r="V2">
+        <v>158</v>
+      </c>
+      <c r="W2">
+        <v>63</v>
+      </c>
+      <c r="X2">
+        <v>85</v>
+      </c>
+      <c r="Y2">
+        <v>138</v>
+      </c>
+      <c r="Z2">
+        <v>148</v>
+      </c>
+      <c r="AA2">
+        <v>196</v>
+      </c>
+      <c r="AB2">
+        <v>168</v>
+      </c>
+      <c r="AC2">
+        <v>148</v>
+      </c>
+      <c r="AD2">
+        <v>168</v>
+      </c>
+      <c r="AE2">
+        <v>158</v>
+      </c>
+      <c r="AF2">
+        <v>63</v>
+      </c>
+      <c r="AG2">
+        <v>85</v>
+      </c>
+      <c r="AH2">
+        <v>138</v>
+      </c>
+      <c r="AI2">
+        <v>148</v>
+      </c>
+      <c r="AJ2">
+        <v>196</v>
+      </c>
+      <c r="AK2">
+        <v>148</v>
+      </c>
+      <c r="AL2">
+        <v>168</v>
+      </c>
+      <c r="AM2">
+        <v>158</v>
+      </c>
+      <c r="AN2">
+        <v>63</v>
+      </c>
+      <c r="AO2">
+        <v>85</v>
+      </c>
+      <c r="AP2">
+        <v>138</v>
+      </c>
+      <c r="AQ2">
+        <v>148</v>
+      </c>
+      <c r="AR2">
+        <v>196</v>
+      </c>
+      <c r="AS2">
+        <v>168</v>
+      </c>
+      <c r="AT2">
+        <v>148</v>
+      </c>
+      <c r="AU2">
+        <v>162</v>
+      </c>
+      <c r="AV2">
+        <v>152</v>
+      </c>
+      <c r="AW2">
+        <v>57</v>
+      </c>
+      <c r="AX2">
+        <v>79</v>
+      </c>
+      <c r="AY2">
+        <v>132</v>
+      </c>
+      <c r="AZ2">
+        <v>142</v>
+      </c>
+      <c r="BA2">
+        <v>190</v>
+      </c>
+      <c r="BB2">
+        <v>162</v>
+      </c>
+      <c r="BC2">
+        <v>142</v>
+      </c>
+      <c r="BD2">
+        <v>162</v>
+      </c>
+      <c r="BE2">
+        <v>152</v>
+      </c>
+      <c r="BF2">
+        <v>57</v>
+      </c>
+      <c r="BG2">
+        <v>79</v>
+      </c>
+      <c r="BH2">
+        <v>132</v>
+      </c>
+      <c r="BI2">
+        <v>142</v>
+      </c>
+      <c r="BJ2">
+        <v>190</v>
+      </c>
+      <c r="BK2">
+        <v>162</v>
+      </c>
+      <c r="BL2">
+        <v>142</v>
+      </c>
+      <c r="BM2">
+        <v>162</v>
+      </c>
+      <c r="BN2">
+        <v>152</v>
+      </c>
+      <c r="BO2">
+        <v>57</v>
+      </c>
+      <c r="BP2">
+        <v>79</v>
+      </c>
+      <c r="BQ2">
+        <v>132</v>
+      </c>
+      <c r="BR2">
+        <v>136</v>
+      </c>
+      <c r="BS2">
+        <v>184</v>
+      </c>
+      <c r="BT2">
+        <v>136</v>
+      </c>
+      <c r="BU2">
+        <v>156</v>
+      </c>
+      <c r="BV2">
+        <v>146</v>
+      </c>
+      <c r="BW2">
+        <v>51</v>
+      </c>
+      <c r="BX2">
+        <v>73</v>
+      </c>
+      <c r="BY2">
+        <v>126</v>
+      </c>
+      <c r="BZ2">
+        <v>136</v>
+      </c>
+      <c r="CA2">
+        <v>184</v>
+      </c>
+      <c r="CB2">
+        <v>156</v>
+      </c>
+      <c r="CC2">
+        <v>136</v>
+      </c>
+      <c r="CD2">
+        <v>156</v>
+      </c>
+      <c r="CE2">
+        <v>146</v>
+      </c>
+      <c r="CF2">
+        <v>51</v>
+      </c>
+      <c r="CG2">
+        <v>73</v>
+      </c>
+      <c r="CH2">
+        <v>126</v>
+      </c>
+      <c r="CI2">
+        <v>136</v>
+      </c>
+      <c r="CJ2">
+        <v>184</v>
+      </c>
+      <c r="CK2">
+        <v>156</v>
+      </c>
+      <c r="CL2">
+        <v>136</v>
+      </c>
+      <c r="CM2">
+        <v>156</v>
+      </c>
+      <c r="CN2">
+        <v>146</v>
+      </c>
+      <c r="CO2">
+        <v>51</v>
+      </c>
+      <c r="CP2">
+        <v>73</v>
+      </c>
+      <c r="CQ2">
+        <v>126</v>
+      </c>
+      <c r="CR2">
+        <v>136</v>
+      </c>
+      <c r="CS2">
+        <v>184</v>
+      </c>
+      <c r="CT2">
+        <v>156</v>
+      </c>
+      <c r="CU2">
+        <v>136</v>
+      </c>
+      <c r="CV2">
+        <v>156</v>
+      </c>
+      <c r="CW2">
+        <v>146</v>
+      </c>
+      <c r="CX2">
+        <v>51</v>
+      </c>
+      <c r="CY2">
+        <v>73</v>
+      </c>
+      <c r="CZ2">
+        <v>201</v>
+      </c>
+      <c r="DA2">
+        <v>211</v>
+      </c>
+      <c r="DB2">
+        <v>648</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>180</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>213</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>87</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>71</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>223</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>203</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>213</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>87</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>71</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>223</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>203</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>213</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>87</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>71</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>223</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>203</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>213</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>87</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>71</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>163</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>173</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>293</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>163</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>173</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>287</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>147</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>107</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>167</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>89</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>217</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="34" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>197</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="35" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>207</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="36" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>81</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="37" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="38" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>217</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="39" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>197</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="40" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>207</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="41" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>81</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="42" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="43" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>217</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="44" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>197</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="45" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>207</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="46" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>81</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="47" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="48" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>217</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="49" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>197</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="50" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>207</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="51" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>81</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="52" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="53" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>157</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="54" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>167</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="55" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>287</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="56" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>157</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="57" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>167</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="58" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>287</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="59" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>147</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="60" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>107</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="61" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>167</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="62" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>89</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="63" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>217</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="64" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>197</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="65" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>207</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="66" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>81</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="67" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="68" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>217</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="69" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>197</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="70" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>207</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="71" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>81</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="72" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="73" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>217</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="74" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>197</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="75" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>207</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="76" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>81</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="77" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="78" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>217</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="79" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>197</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="80" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>207</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="81" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>81</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="82" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="83" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>157</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="84" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>167</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="85" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>287</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="86" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>157</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="87" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>167</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="88" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>287</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="89" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>147</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="90" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>185</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="91" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>167</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="92" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:IV1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CBDACD-5117-43D3-886B-E812977B7EBC}">
+  <dimension ref="A1:IV5"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" ht="20" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
+      <c r="FE1" s="2"/>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2"/>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
+      <c r="FW1" s="2"/>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
+      <c r="GC1" s="2"/>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="2"/>
+      <c r="GJ1" s="2"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
+      <c r="GM1" s="2"/>
+      <c r="GN1" s="2"/>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+      <c r="GQ1" s="2"/>
+      <c r="GR1" s="2"/>
+      <c r="GS1" s="2"/>
+      <c r="GT1" s="2"/>
+      <c r="GU1" s="2"/>
+      <c r="GV1" s="2"/>
+      <c r="GW1" s="2"/>
+      <c r="GX1" s="2"/>
+      <c r="GY1" s="2"/>
+      <c r="GZ1" s="2"/>
+      <c r="HA1" s="2"/>
+      <c r="HB1" s="2"/>
+      <c r="HC1" s="2"/>
+      <c r="HD1" s="2"/>
+      <c r="HE1" s="2"/>
+      <c r="HF1" s="2"/>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2"/>
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2"/>
+      <c r="HR1" s="2"/>
+      <c r="HS1" s="2"/>
+      <c r="HT1" s="2"/>
+      <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
+      <c r="HX1" s="2"/>
+      <c r="HY1" s="2"/>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
+      <c r="IB1" s="2"/>
+      <c r="IC1" s="2"/>
+      <c r="ID1" s="2"/>
+      <c r="IE1" s="2"/>
+      <c r="IF1" s="2"/>
+      <c r="IG1" s="2"/>
+      <c r="IH1" s="2"/>
+      <c r="II1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IK1" s="2"/>
+      <c r="IL1" s="2"/>
+      <c r="IM1" s="2"/>
+      <c r="IN1" s="2"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
+      <c r="IU1" s="2"/>
+      <c r="IV1" s="2"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>160</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>190</v>
       </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:IV1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7931507-3183-40D9-91D3-95D2683ECD69}">
+  <dimension ref="A1:IV6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" ht="20" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
+      <c r="FE1" s="2"/>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2"/>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
+      <c r="FW1" s="2"/>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
+      <c r="GC1" s="2"/>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="2"/>
+      <c r="GJ1" s="2"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
+      <c r="GM1" s="2"/>
+      <c r="GN1" s="2"/>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+      <c r="GQ1" s="2"/>
+      <c r="GR1" s="2"/>
+      <c r="GS1" s="2"/>
+      <c r="GT1" s="2"/>
+      <c r="GU1" s="2"/>
+      <c r="GV1" s="2"/>
+      <c r="GW1" s="2"/>
+      <c r="GX1" s="2"/>
+      <c r="GY1" s="2"/>
+      <c r="GZ1" s="2"/>
+      <c r="HA1" s="2"/>
+      <c r="HB1" s="2"/>
+      <c r="HC1" s="2"/>
+      <c r="HD1" s="2"/>
+      <c r="HE1" s="2"/>
+      <c r="HF1" s="2"/>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2"/>
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2"/>
+      <c r="HR1" s="2"/>
+      <c r="HS1" s="2"/>
+      <c r="HT1" s="2"/>
+      <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
+      <c r="HX1" s="2"/>
+      <c r="HY1" s="2"/>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
+      <c r="IB1" s="2"/>
+      <c r="IC1" s="2"/>
+      <c r="ID1" s="2"/>
+      <c r="IE1" s="2"/>
+      <c r="IF1" s="2"/>
+      <c r="IG1" s="2"/>
+      <c r="IH1" s="2"/>
+      <c r="II1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IK1" s="2"/>
+      <c r="IL1" s="2"/>
+      <c r="IM1" s="2"/>
+      <c r="IN1" s="2"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
+      <c r="IU1" s="2"/>
+      <c r="IV1" s="2"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>200</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>180</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>190</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>200</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>180</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>190</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>200</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>180</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>190</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>140</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>150</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>270</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>140</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>150</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>270</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>130</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>90</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>150</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>72</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>200</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="34" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>180</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="35" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>190</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="36" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="37" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="38" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>200</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="39" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>180</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="40" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>190</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="41" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="42" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="43" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>200</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="44" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>180</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="45" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>190</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="46" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="47" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="48" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>200</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="49" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>180</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="50" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>190</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="51" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="52" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="53" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>140</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="54" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>150</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="55" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>270</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="56" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>140</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="57" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>150</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="58" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>270</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="59" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>130</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="60" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>90</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="61" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>150</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="62" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>72</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="63" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>200</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="64" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>180</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="65" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>190</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="66" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="67" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="68" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>200</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="69" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>180</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="70" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>190</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="71" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="72" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="73" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>200</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="74" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>180</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="75" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <v>190</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="76" x14ac:dyDescent="0.45">
-      <c r="A76">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="77" x14ac:dyDescent="0.45">
-      <c r="A77">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="78" x14ac:dyDescent="0.45">
-      <c r="A78">
-        <v>200</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="79" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>180</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="80" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>190</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="81" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>64</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="82" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>48</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="83" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>140</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="84" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>150</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="85" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>270</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="86" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>140</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="87" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>150</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="88" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>270</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="89" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>130</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="90" x14ac:dyDescent="0.45">
-      <c r="A90">
-        <v>90</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="91" x14ac:dyDescent="0.45">
-      <c r="A91">
-        <v>150</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="92" x14ac:dyDescent="0.45">
-      <c r="A92">
-        <v>72</v>
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
